--- a/MRND/homeproject/tododataexcel.xlsx
+++ b/MRND/homeproject/tododataexcel.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
@@ -122,11 +122,12 @@
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,6 +143,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,16 +192,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,7 +281,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,7 +299,8 @@
       <c r="C1" s="1" t="n">
         <v>43618</v>
       </c>
-      <c r="D1" s="2" t="b">
+      <c r="D1" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -300,10 +311,11 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>43618</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="C2" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -314,10 +326,11 @@
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>43618</v>
-      </c>
-      <c r="D3" s="2" t="b">
+      <c r="C3" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -328,10 +341,11 @@
       <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>43618</v>
-      </c>
-      <c r="D4" s="2" t="b">
+      <c r="C4" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -342,10 +356,11 @@
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>43618</v>
-      </c>
-      <c r="D5" s="2" t="b">
+      <c r="C5" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -356,10 +371,11 @@
       <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D6" s="2" t="b">
+      <c r="C6" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -370,10 +386,11 @@
       <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D7" s="2" t="b">
+      <c r="C7" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -384,10 +401,11 @@
       <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D8" s="2" t="b">
+      <c r="C8" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -398,10 +416,11 @@
       <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D9" s="2" t="b">
+      <c r="C9" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -412,10 +431,11 @@
       <c r="B10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D10" s="2" t="b">
+      <c r="C10" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -426,10 +446,11 @@
       <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>43618</v>
-      </c>
-      <c r="D11" s="2" t="b">
+      <c r="C11" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -440,10 +461,11 @@
       <c r="B12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>43618</v>
-      </c>
-      <c r="D12" s="2" t="b">
+      <c r="C12" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -454,10 +476,11 @@
       <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>43618</v>
-      </c>
-      <c r="D13" s="2" t="b">
+      <c r="C13" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -468,10 +491,11 @@
       <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>43618</v>
-      </c>
-      <c r="D14" s="2" t="b">
+      <c r="C14" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -482,10 +506,11 @@
       <c r="B15" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>43618</v>
-      </c>
-      <c r="D15" s="2" t="b">
+      <c r="C15" s="3" t="n">
+        <v>43618</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -496,10 +521,11 @@
       <c r="B16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D16" s="2" t="b">
+      <c r="C16" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -510,10 +536,11 @@
       <c r="B17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D17" s="2" t="b">
+      <c r="C17" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -524,10 +551,11 @@
       <c r="B18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D18" s="2" t="b">
+      <c r="C18" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -538,10 +566,11 @@
       <c r="B19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D19" s="2" t="b">
+      <c r="C19" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -552,10 +581,11 @@
       <c r="B20" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>43633</v>
-      </c>
-      <c r="D20" s="2" t="b">
+      <c r="C20" s="3" t="n">
+        <v>43633</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -566,10 +596,11 @@
       <c r="B21" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="3" t="n">
         <v>43636</v>
       </c>
-      <c r="D21" s="2" t="b">
+      <c r="D21" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -580,10 +611,11 @@
       <c r="B22" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="3" t="n">
         <v>43636</v>
       </c>
-      <c r="D22" s="2" t="b">
+      <c r="D22" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -594,10 +626,11 @@
       <c r="B23" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="3" t="n">
         <v>43636</v>
       </c>
-      <c r="D23" s="2" t="b">
+      <c r="D23" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -608,10 +641,11 @@
       <c r="B24" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="3" t="n">
         <v>43636</v>
       </c>
-      <c r="D24" s="2" t="b">
+      <c r="D24" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -622,17 +656,18 @@
       <c r="B25" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="3" t="n">
         <v>43636</v>
       </c>
-      <c r="D25" s="2" t="b">
+      <c r="D25" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
